--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3763.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3763.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.285666853666098</v>
+        <v>0.6982125043869019</v>
       </c>
       <c r="B1">
-        <v>2.593424146124621</v>
+        <v>1.913483142852783</v>
       </c>
       <c r="C1">
-        <v>3.749300751172261</v>
+        <v>5.700013160705566</v>
       </c>
       <c r="D1">
-        <v>3.964232203702136</v>
+        <v>1.534625172615051</v>
       </c>
       <c r="E1">
-        <v>1.126753815879985</v>
+        <v>0.6905362010002136</v>
       </c>
     </row>
   </sheetData>
